--- a/NatmiData/natmiOut_TPM/YoungD7/LR-pairs_lrc2p/F8-Asgr2.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD7/LR-pairs_lrc2p/F8-Asgr2.xlsx
@@ -537,16 +537,16 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>2.229372666666666</v>
+        <v>4.953047333333333</v>
       </c>
       <c r="H2">
-        <v>6.688117999999999</v>
+        <v>14.859142</v>
       </c>
       <c r="I2">
-        <v>0.5889623983027473</v>
+        <v>0.7703204220313993</v>
       </c>
       <c r="J2">
-        <v>0.5889623983027473</v>
+        <v>0.7703204220313993</v>
       </c>
       <c r="K2">
         <v>1</v>
@@ -561,22 +561,22 @@
         <v>0.043415</v>
       </c>
       <c r="O2">
-        <v>0.05132524707996405</v>
+        <v>0.01909956851648506</v>
       </c>
       <c r="P2">
-        <v>0.05132524707996405</v>
+        <v>0.01909956851648506</v>
       </c>
       <c r="Q2">
-        <v>0.03226273810777777</v>
+        <v>0.07167884999222222</v>
       </c>
       <c r="R2">
-        <v>0.2903646429699999</v>
+        <v>0.64510964993</v>
       </c>
       <c r="S2">
-        <v>0.03022864061369671</v>
+        <v>0.0147127876802364</v>
       </c>
       <c r="T2">
-        <v>0.03022864061369671</v>
+        <v>0.0147127876802364</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -599,46 +599,46 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>2.229372666666666</v>
+        <v>4.953047333333333</v>
       </c>
       <c r="H3">
-        <v>6.688117999999999</v>
+        <v>14.859142</v>
       </c>
       <c r="I3">
-        <v>0.5889623983027473</v>
+        <v>0.7703204220313993</v>
       </c>
       <c r="J3">
-        <v>0.5889623983027473</v>
+        <v>0.7703204220313993</v>
       </c>
       <c r="K3">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L3">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M3">
-        <v>0.2674883333333334</v>
+        <v>0.7432243333333334</v>
       </c>
       <c r="N3">
-        <v>0.8024650000000001</v>
+        <v>2.229673</v>
       </c>
       <c r="O3">
-        <v>0.948674752920036</v>
+        <v>0.9809004314835149</v>
       </c>
       <c r="P3">
-        <v>0.948674752920036</v>
+        <v>0.9809004314835149</v>
       </c>
       <c r="Q3">
-        <v>0.5963311789855557</v>
+        <v>3.681225302285111</v>
       </c>
       <c r="R3">
-        <v>5.36698061087</v>
+        <v>33.131027720566</v>
       </c>
       <c r="S3">
-        <v>0.5587337576890506</v>
+        <v>0.7556076343511628</v>
       </c>
       <c r="T3">
-        <v>0.5587337576890506</v>
+        <v>0.7556076343511628</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -667,10 +667,10 @@
         <v>2.622792</v>
       </c>
       <c r="I4">
-        <v>0.2309657016471988</v>
+        <v>0.135969508894967</v>
       </c>
       <c r="J4">
-        <v>0.2309657016471987</v>
+        <v>0.135969508894967</v>
       </c>
       <c r="K4">
         <v>1</v>
@@ -685,10 +685,10 @@
         <v>0.043415</v>
       </c>
       <c r="O4">
-        <v>0.05132524707996405</v>
+        <v>0.01909956851648506</v>
       </c>
       <c r="P4">
-        <v>0.05132524707996405</v>
+        <v>0.01909956851648506</v>
       </c>
       <c r="Q4">
         <v>0.01265205718666667</v>
@@ -697,10 +697,10 @@
         <v>0.11386851468</v>
       </c>
       <c r="S4">
-        <v>0.01185437170403974</v>
+        <v>0.002596958951292248</v>
       </c>
       <c r="T4">
-        <v>0.01185437170403973</v>
+        <v>0.002596958951292248</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -729,40 +729,40 @@
         <v>2.622792</v>
       </c>
       <c r="I5">
-        <v>0.2309657016471988</v>
+        <v>0.135969508894967</v>
       </c>
       <c r="J5">
-        <v>0.2309657016471987</v>
+        <v>0.135969508894967</v>
       </c>
       <c r="K5">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L5">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M5">
-        <v>0.2674883333333334</v>
+        <v>0.7432243333333334</v>
       </c>
       <c r="N5">
-        <v>0.8024650000000001</v>
+        <v>2.229673</v>
       </c>
       <c r="O5">
-        <v>0.948674752920036</v>
+        <v>0.9809004314835149</v>
       </c>
       <c r="P5">
-        <v>0.948674752920036</v>
+        <v>0.9809004314835149</v>
       </c>
       <c r="Q5">
-        <v>0.2338554202533334</v>
+        <v>0.6497742785573334</v>
       </c>
       <c r="R5">
-        <v>2.10469878228</v>
+        <v>5.847968507016</v>
       </c>
       <c r="S5">
-        <v>0.219111329943159</v>
+        <v>0.1333725499436748</v>
       </c>
       <c r="T5">
-        <v>0.219111329943159</v>
+        <v>0.1333725499436748</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -785,16 +785,16 @@
         <v>1</v>
       </c>
       <c r="G6">
-        <v>0.544844</v>
+        <v>0.5382536666666667</v>
       </c>
       <c r="H6">
-        <v>1.634532</v>
+        <v>1.614761</v>
       </c>
       <c r="I6">
-        <v>0.1439385320089428</v>
+        <v>0.08371165542397027</v>
       </c>
       <c r="J6">
-        <v>0.1439385320089428</v>
+        <v>0.08371165542397027</v>
       </c>
       <c r="K6">
         <v>1</v>
@@ -809,22 +809,22 @@
         <v>0.043415</v>
       </c>
       <c r="O6">
-        <v>0.05132524707996405</v>
+        <v>0.01909956851648506</v>
       </c>
       <c r="P6">
-        <v>0.05132524707996405</v>
+        <v>0.01909956851648506</v>
       </c>
       <c r="Q6">
-        <v>0.007884800753333332</v>
+        <v>0.007789427646111112</v>
       </c>
       <c r="R6">
-        <v>0.07096320678</v>
+        <v>0.07010484881500001</v>
       </c>
       <c r="S6">
-        <v>0.007387680719686302</v>
+        <v>0.001598856498398509</v>
       </c>
       <c r="T6">
-        <v>0.007387680719686303</v>
+        <v>0.001598856498398509</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -847,46 +847,46 @@
         <v>1</v>
       </c>
       <c r="G7">
-        <v>0.544844</v>
+        <v>0.5382536666666667</v>
       </c>
       <c r="H7">
-        <v>1.634532</v>
+        <v>1.614761</v>
       </c>
       <c r="I7">
-        <v>0.1439385320089428</v>
+        <v>0.08371165542397027</v>
       </c>
       <c r="J7">
-        <v>0.1439385320089428</v>
+        <v>0.08371165542397027</v>
       </c>
       <c r="K7">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L7">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M7">
-        <v>0.2674883333333334</v>
+        <v>0.7432243333333334</v>
       </c>
       <c r="N7">
-        <v>0.8024650000000001</v>
+        <v>2.229673</v>
       </c>
       <c r="O7">
-        <v>0.948674752920036</v>
+        <v>0.9809004314835149</v>
       </c>
       <c r="P7">
-        <v>0.948674752920036</v>
+        <v>0.9809004314835149</v>
       </c>
       <c r="Q7">
-        <v>0.1457394134866667</v>
+        <v>0.4000432225725556</v>
       </c>
       <c r="R7">
-        <v>1.31165472138</v>
+        <v>3.600389003153</v>
       </c>
       <c r="S7">
-        <v>0.1365508512892565</v>
+        <v>0.08211279892557176</v>
       </c>
       <c r="T7">
-        <v>0.1365508512892565</v>
+        <v>0.08211279892557176</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -909,16 +909,16 @@
         <v>1</v>
       </c>
       <c r="G8">
-        <v>0.136774</v>
+        <v>0.06428833333333334</v>
       </c>
       <c r="H8">
-        <v>0.410322</v>
+        <v>0.192865</v>
       </c>
       <c r="I8">
-        <v>0.0361333680411111</v>
+        <v>0.009998413649663342</v>
       </c>
       <c r="J8">
-        <v>0.0361333680411111</v>
+        <v>0.009998413649663342</v>
       </c>
       <c r="K8">
         <v>1</v>
@@ -933,22 +933,22 @@
         <v>0.043415</v>
       </c>
       <c r="O8">
-        <v>0.05132524707996405</v>
+        <v>0.01909956851648506</v>
       </c>
       <c r="P8">
-        <v>0.05132524707996405</v>
+        <v>0.01909956851648506</v>
       </c>
       <c r="Q8">
-        <v>0.001979347736666666</v>
+        <v>0.0009303593305555557</v>
       </c>
       <c r="R8">
-        <v>0.01781412963</v>
+        <v>0.008373233975000002</v>
       </c>
       <c r="S8">
-        <v>0.001854554042541304</v>
+        <v>0.0001909653865579045</v>
       </c>
       <c r="T8">
-        <v>0.001854554042541304</v>
+        <v>0.0001909653865579045</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -971,46 +971,46 @@
         <v>1</v>
       </c>
       <c r="G9">
-        <v>0.136774</v>
+        <v>0.06428833333333334</v>
       </c>
       <c r="H9">
-        <v>0.410322</v>
+        <v>0.192865</v>
       </c>
       <c r="I9">
-        <v>0.0361333680411111</v>
+        <v>0.009998413649663342</v>
       </c>
       <c r="J9">
-        <v>0.0361333680411111</v>
+        <v>0.009998413649663342</v>
       </c>
       <c r="K9">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L9">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M9">
-        <v>0.2674883333333334</v>
+        <v>0.7432243333333334</v>
       </c>
       <c r="N9">
-        <v>0.8024650000000001</v>
+        <v>2.229673</v>
       </c>
       <c r="O9">
-        <v>0.948674752920036</v>
+        <v>0.9809004314835149</v>
       </c>
       <c r="P9">
-        <v>0.948674752920036</v>
+        <v>0.9809004314835149</v>
       </c>
       <c r="Q9">
-        <v>0.03658544930333334</v>
+        <v>0.04778065368277779</v>
       </c>
       <c r="R9">
-        <v>0.32926904373</v>
+        <v>0.430025883145</v>
       </c>
       <c r="S9">
-        <v>0.03427881399856979</v>
+        <v>0.009807448263105437</v>
       </c>
       <c r="T9">
-        <v>0.03427881399856979</v>
+        <v>0.009807448263105437</v>
       </c>
     </row>
   </sheetData>
